--- a/results/I3_N5_M2_T45_C100_DepCentral_s0_P4_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s0_P4_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2835.162412917392</v>
+        <v>1816.399348266325</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793464</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.09518139179913</v>
+        <v>9.648595488791731</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.870336841250731</v>
+        <v>2.990259787578902</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2581.850000000005</v>
+        <v>1806</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.28</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245558</v>
+        <v>36.72863473297091</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.66223190247689</v>
+        <v>40.61498263299222</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>32.37739353073907</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
@@ -994,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>15</v>
+        <v>43.79947631331252</v>
       </c>
     </row>
     <row r="8">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>34.79834375740628</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>41.49915775529188</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1129,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1143,7 +1088,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1157,7 +1102,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1171,7 +1116,7 @@
         <v>2</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1185,7 +1130,7 @@
         <v>2</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1199,10 +1144,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -1213,10 +1158,10 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1224,7 +1169,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>6</v>
@@ -1238,7 +1183,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>6</v>
@@ -1252,7 +1197,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>6</v>
@@ -1266,7 +1211,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>6</v>
@@ -1280,7 +1225,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
         <v>6</v>
@@ -1391,7 +1336,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>129.5550000000004</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1347,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>137.4900000000004</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1358,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>141.4600000000004</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1369,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>142.9700000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1380,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>140.1100000000004</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1391,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>240.9550000000012</v>
+        <v>235</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1402,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>259.5550000000012</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>258.1750000000013</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1424,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>268.1800000000012</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1435,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.7400000000012</v>
+        <v>225</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1446,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1457,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1468,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>98</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1479,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1490,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>97</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1512,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1523,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1545,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1556,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1567,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>276</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1578,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>286</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1589,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1600,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>208.0599999999994</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1622,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>189.4349999999993</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>206.7149999999993</v>
+        <v>286</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1644,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>193.8399999999993</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1655,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>203.2699999999994</v>
+        <v>272</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>240.9550000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1677,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>259.5550000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>258.1750000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1699,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>268.1800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1710,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>262.7400000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1757,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>108.0599999999994</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1768,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>89.43499999999935</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1779,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>106.7149999999993</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1790,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>93.83999999999935</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1801,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>103.2699999999994</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1812,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>140.9550000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1823,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5550000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1834,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>158.1750000000013</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1845,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>168.1800000000012</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1856,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>162.7400000000012</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2123,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2189,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2200,7 +2145,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2156,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2222,7 +2167,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2376,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="B12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -2387,7 +2332,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2395,7 +2340,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -2406,7 +2351,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
@@ -2417,7 +2362,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" t="n">
         <v>3</v>
@@ -2428,7 +2373,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -2439,7 +2384,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B18" t="n">
         <v>5</v>
